--- a/medicine/Psychotrope/Cartel_de_la_drogue/Cartel_de_la_drogue.xlsx
+++ b/medicine/Psychotrope/Cartel_de_la_drogue/Cartel_de_la_drogue.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Un cartel de la drogue est une organisation criminelle qui est dirigée par un Jefe (chef en espagnol) ou un « baron de la drogue », développée avec pour principal objectif de promouvoir et de contrôler les opérations de trafic de drogues. Les cartels de la drogue varient de l'accord informel entre différents narcotrafiquants et producteurs à l'entreprise commerciale officielle. Les cartels de la drogue ne sont pas des cartels au sens strict, ce mot désignant à l'origine une entente illicite entre des entreprises. Mais le terme de « cartel » a été utilisé par la justice américaine pour désigner les narcotrafiquants colombiens dans les années 1980, son emploi s'est ensuite généralisé.
 Les cartels de la drogue opèrent dans de nombreux pays à travers l'Amérique latine dont le Mexique, l'Amérique centrale, et en Afghanistan, et en Asie du Sud. Ils sont la cause de la violence criminelle extrême et de milliers de meurtres, particulièrement le long de la frontière entre les États-Unis et le Mexique.
@@ -513,7 +525,9 @@
           <t>En Colombie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Cartel de Medellín - basé à Medellin (Antioquia)
 Cartel de Cali - basé à Cali (Valle del Cauca)
@@ -547,9 +561,11 @@
           <t>Au Mexique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Cartel de Jalisco Nouvelle Génération : en activité. Le plus développé et dangereux en 2020 selon la DEA[1].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Cartel de Jalisco Nouvelle Génération : en activité. Le plus développé et dangereux en 2020 selon la DEA.
 Cartel Beltrán Leyva
 Cartel de la Famillia basé dans le Michoacán
 Cartel du Golfe - basé à Matamoros (Tamaulipas)
